--- a/data/financial_statements/soci/ADSK.xlsx
+++ b/data/financial_statements/soci/ADSK.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,147 +604,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41851</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41759</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41670</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41578</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41486</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41305</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1261000000</v>
+        <v>1280000000</v>
       </c>
       <c r="C2">
-        <v>1226000000</v>
+        <v>1237000000</v>
       </c>
       <c r="D2">
-        <v>1164000000</v>
+        <v>1170000000</v>
       </c>
       <c r="E2">
-        <v>1210000000</v>
+        <v>1211400000</v>
       </c>
       <c r="F2">
-        <v>1129000000</v>
+        <v>1126000000</v>
       </c>
       <c r="G2">
         <v>1060000000</v>
@@ -739,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.1169</v>
+        <v>0.1368</v>
       </c>
       <c r="C3">
-        <v>0.1566</v>
+        <v>0.167</v>
       </c>
       <c r="D3">
-        <v>0.1769</v>
+        <v>0.183</v>
       </c>
       <c r="E3">
-        <v>0.1644</v>
+        <v>0.1657</v>
       </c>
       <c r="F3">
-        <v>0.1854</v>
+        <v>0.1823</v>
       </c>
       <c r="G3">
         <v>0.1609</v>
@@ -864,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>129000000</v>
+        <v>120000000</v>
       </c>
       <c r="C4">
-        <v>127000000</v>
+        <v>119000000</v>
       </c>
       <c r="D4">
-        <v>127000000</v>
+        <v>117000000</v>
       </c>
       <c r="E4">
-        <v>123000000</v>
+        <v>112500000</v>
       </c>
       <c r="F4">
-        <v>118000000</v>
+        <v>108000000</v>
       </c>
       <c r="G4">
         <v>106000000</v>
@@ -989,23 +1103,23 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>1132000000</v>
+        <v>1160000000</v>
       </c>
       <c r="C5">
-        <v>1099000000</v>
+        <v>1118000000</v>
       </c>
       <c r="D5">
-        <v>1037000000</v>
+        <v>1053000000</v>
       </c>
       <c r="E5">
-        <v>1087000000</v>
+        <v>1098900000</v>
       </c>
       <c r="F5">
-        <v>1011000000</v>
+        <v>1018000000</v>
       </c>
       <c r="G5">
         <v>954000000</v>
@@ -1114,20 +1228,20 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>309000000</v>
+        <v>311000000</v>
       </c>
       <c r="C6">
-        <v>304000000</v>
+        <v>306000000</v>
       </c>
       <c r="D6">
         <v>289000000</v>
       </c>
       <c r="E6">
-        <v>290000000</v>
+        <v>289800000</v>
       </c>
       <c r="F6">
         <v>282000000</v>
@@ -1239,8 +1353,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>583000000</v>
@@ -1364,8 +1478,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>256000000</v>
@@ -1489,8 +1603,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>24000000</v>
@@ -1530,8 +1644,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>14000000</v>
@@ -1607,23 +1721,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>23000000</v>
+        <v>-14000000</v>
       </c>
       <c r="C11">
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="D11">
-        <v>-9000000</v>
+        <v>-19000000</v>
       </c>
       <c r="E11">
-        <v>-7000000</v>
+        <v>-35900000</v>
       </c>
       <c r="F11">
-        <v>3000000</v>
+        <v>-5000000</v>
       </c>
       <c r="G11">
         <v>-9000000</v>
@@ -1732,8 +1846,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>242000000</v>
@@ -1745,10 +1859,10 @@
         <v>195000000</v>
       </c>
       <c r="E12">
-        <v>107000000</v>
+        <v>106700000</v>
       </c>
       <c r="F12">
-        <v>187000000</v>
+        <v>188000000</v>
       </c>
       <c r="G12">
         <v>139000000</v>
@@ -1857,8 +1971,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>44000000</v>
@@ -1870,7 +1984,7 @@
         <v>49000000</v>
       </c>
       <c r="E13">
-        <v>18000000</v>
+        <v>17700000</v>
       </c>
       <c r="F13">
         <v>51000000</v>
@@ -1982,8 +2096,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>198000000</v>
@@ -2107,8 +2221,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2151,8 +2265,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>198000000</v>
@@ -2276,23 +2390,23 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C17">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D17">
         <v>0.67</v>
       </c>
       <c r="E17">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F17">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G17">
         <v>0.53</v>
@@ -2401,8 +2515,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0.91</v>
@@ -2526,8 +2640,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>216000000</v>
@@ -2539,7 +2653,7 @@
         <v>217000000</v>
       </c>
       <c r="E19">
-        <v>219000000</v>
+        <v>219700000</v>
       </c>
       <c r="F19">
         <v>220000000</v>
@@ -2651,8 +2765,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>217000000</v>
@@ -2664,10 +2778,10 @@
         <v>219000000</v>
       </c>
       <c r="E20">
-        <v>221000000</v>
+        <v>222000000</v>
       </c>
       <c r="F20">
-        <v>223000000</v>
+        <v>222000000</v>
       </c>
       <c r="G20">
         <v>222000000</v>
@@ -2776,23 +2890,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.8977000000000001</v>
+        <v>0.9063</v>
       </c>
       <c r="C21">
-        <v>0.8964</v>
+        <v>0.9038</v>
       </c>
       <c r="D21">
-        <v>0.8909</v>
+        <v>0.9</v>
       </c>
       <c r="E21">
-        <v>0.8983</v>
+        <v>0.9071</v>
       </c>
       <c r="F21">
-        <v>0.8955</v>
+        <v>0.9041</v>
       </c>
       <c r="G21">
         <v>0.9</v>
@@ -2901,23 +3015,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.203</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <v>0.1974</v>
+        <v>0.1956</v>
       </c>
       <c r="D22">
-        <v>0.1838</v>
+        <v>0.1829</v>
       </c>
       <c r="E22">
-        <v>0.1179</v>
+        <v>0.1177</v>
       </c>
       <c r="F22">
-        <v>0.1709</v>
+        <v>0.1714</v>
       </c>
       <c r="G22">
         <v>0.1396</v>
@@ -3026,23 +3140,23 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0.1919</v>
+        <v>0.1891</v>
       </c>
       <c r="C23">
-        <v>0.1892</v>
+        <v>0.1876</v>
       </c>
       <c r="D23">
-        <v>0.1675</v>
+        <v>0.1667</v>
       </c>
       <c r="E23">
-        <v>0.08840000000000001</v>
+        <v>0.0881</v>
       </c>
       <c r="F23">
-        <v>0.1656</v>
+        <v>0.167</v>
       </c>
       <c r="G23">
         <v>0.1311</v>
@@ -3151,23 +3265,23 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>0.157</v>
+        <v>0.1547</v>
       </c>
       <c r="C24">
-        <v>0.1517</v>
+        <v>0.1504</v>
       </c>
       <c r="D24">
-        <v>0.1254</v>
+        <v>0.1248</v>
       </c>
       <c r="E24">
-        <v>0.0736</v>
+        <v>0.0735</v>
       </c>
       <c r="F24">
-        <v>0.1213</v>
+        <v>0.1217</v>
       </c>
       <c r="G24">
         <v>0.1085</v>
@@ -3276,23 +3390,23 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>298000000</v>
+        <v>293000000</v>
       </c>
       <c r="C25">
         <v>280000000</v>
       </c>
       <c r="D25">
-        <v>253000000</v>
+        <v>252000000</v>
       </c>
       <c r="E25">
-        <v>185000000</v>
+        <v>176699900</v>
       </c>
       <c r="F25">
-        <v>243000000</v>
+        <v>235000000</v>
       </c>
       <c r="G25">
         <v>187000000</v>
@@ -3401,8 +3515,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>256000000</v>
@@ -3526,8 +3640,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>198000000</v>
@@ -3651,8 +3765,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>198000000</v>
@@ -3776,8 +3890,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0.9167</v>
@@ -3901,8 +4015,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0.9124</v>
@@ -4026,8 +4140,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0.9167</v>
@@ -4151,8 +4265,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0.9124</v>
@@ -4276,8 +4390,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>217000000</v>
@@ -4401,23 +4515,23 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>0.2363</v>
+        <v>0.2289</v>
       </c>
       <c r="C34">
-        <v>0.2284</v>
+        <v>0.2264</v>
       </c>
       <c r="D34">
-        <v>0.2174</v>
+        <v>0.2154</v>
       </c>
       <c r="E34">
-        <v>0.1529</v>
+        <v>0.1459</v>
       </c>
       <c r="F34">
-        <v>0.2152</v>
+        <v>0.2087</v>
       </c>
       <c r="G34">
         <v>0.1764</v>
@@ -4526,23 +4640,23 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>0.3719</v>
+        <v>0.3664</v>
       </c>
       <c r="C35">
-        <v>0.2096</v>
+        <v>0.2078</v>
       </c>
       <c r="D35">
-        <v>0.3729</v>
+        <v>0.3709</v>
       </c>
       <c r="E35">
-        <v>0.5969</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="F35">
-        <v>0.24</v>
+        <v>0.2407</v>
       </c>
       <c r="G35">
         <v>0.1906</v>
